--- a/API_auto/API_1/python.xlsx
+++ b/API_auto/API_1/python.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" state="visible" r:id="rId1"/>
@@ -92,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -115,6 +115,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -123,13 +147,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -146,6 +167,19 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -447,61 +481,67 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="4" width="13.125"/>
-    <col customWidth="1" max="3" min="3" style="4" width="65.625"/>
-    <col customWidth="1" max="4" min="4" style="4" width="79.125"/>
-    <col customWidth="1" max="5" min="5" style="4" width="11.25"/>
-    <col customWidth="1" max="6" min="6" style="4" width="24.875"/>
-    <col customWidth="1" max="7" min="7" style="4" width="19.5"/>
+    <col customWidth="1" max="2" min="2" style="3" width="13.125"/>
+    <col customWidth="1" max="3" min="3" style="3" width="65.625"/>
+    <col customWidth="1" max="4" min="4" style="3" width="79.125"/>
+    <col customWidth="1" max="5" min="5" style="3" width="11.25"/>
+    <col customWidth="1" max="6" min="6" style="3" width="24.875"/>
+    <col customWidth="1" max="7" min="7" style="3" width="19.5"/>
+    <col customWidth="1" max="9" min="9" style="3" width="72.375"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="13" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="13" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="13" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="13" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="13" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="13" t="inlineStr">
         <is>
           <t>actual</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="13" t="inlineStr">
         <is>
           <t>result</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
+          <t>sql</t>
         </is>
       </c>
     </row>
@@ -509,7 +549,7 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>注册</t>
         </is>
@@ -531,7 +571,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>注册成功</t>
+          <t>手机号码已被注册</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -541,7 +581,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I2" s="15" t="inlineStr">
+        <is>
+          <t>SELECT id FROM future.member where mobilephone = "#normal_user#" order by id desc limit 1</t>
         </is>
       </c>
     </row>
@@ -584,6 +629,11 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="I3" s="15" t="inlineStr">
+        <is>
+          <t>SELECT id FROM future.member where mobilephone = "#normal_user#" order by id desc limit 1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -624,6 +674,11 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="I4" s="15" t="inlineStr">
+        <is>
+          <t>SELECT id FROM future.member where mobilephone = "#normal_user#" order by id desc limit 1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -664,6 +719,11 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="I5" s="15" t="inlineStr">
+        <is>
+          <t>SELECT id FROM future.member where mobilephone = "#normal_user#" order by id desc limit 1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -704,6 +764,11 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="I6" s="15" t="inlineStr">
+        <is>
+          <t>SELECT id FROM future.member where mobilephone = "#normal_user#" order by id desc limit 1</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -744,6 +809,11 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="I7" s="15" t="inlineStr">
+        <is>
+          <t>SELECT id FROM future.member where mobilephone = "#normal_user#" order by id desc limit 1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -784,6 +854,11 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>SELECT id FROM future.member where mobilephone = "#normal_user#" order by id desc limit 1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -824,6 +899,11 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="I9" s="15" t="inlineStr">
+        <is>
+          <t>SELECT id FROM future.member where mobilephone = "#normal_user#" order by id desc limit 1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -864,6 +944,11 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>SELECT id FROM future.member where mobilephone = "#normal_user#" order by id desc limit 1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -904,6 +989,11 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="I11" s="15" t="inlineStr">
+        <is>
+          <t>SELECT id FROM future.member where mobilephone = "#normal_user#" order by id desc limit 1</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -942,6 +1032,11 @@
       <c r="H12" t="inlineStr">
         <is>
           <t>PASS</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>SELECT id FROM future.member where mobilephone = "#normal_user#" order by id desc limit 1</t>
         </is>
       </c>
     </row>
@@ -964,55 +1059,55 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="8.875"/>
-    <col customWidth="1" max="3" min="3" style="4" width="59.875"/>
-    <col customWidth="1" max="4" min="4" style="4" width="61.5"/>
-    <col customWidth="1" max="6" min="6" style="4" width="21.5"/>
-    <col customWidth="1" max="7" min="7" style="4" width="23"/>
+    <col customWidth="1" max="1" min="1" style="3" width="8.875"/>
+    <col customWidth="1" max="3" min="3" style="3" width="59.875"/>
+    <col customWidth="1" max="4" min="4" style="3" width="61.5"/>
+    <col customWidth="1" max="6" min="6" style="3" width="21.5"/>
+    <col customWidth="1" max="7" min="7" style="3" width="23"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="13" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="13" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="13" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="13" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="13" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="13" t="inlineStr">
         <is>
           <t>actual</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="13" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -1022,7 +1117,7 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
@@ -1049,12 +1144,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>登录成功</t>
+          <t>用户名或密码错误</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -1169,12 +1264,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>登录成功</t>
+          <t>用户名或密码错误</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -1350,60 +1445,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="4" width="29.875"/>
-    <col customWidth="1" max="3" min="3" style="4" width="31"/>
-    <col customWidth="1" max="4" min="4" style="4" width="59.5"/>
-    <col customWidth="1" max="6" min="6" style="4" width="33.75"/>
-    <col customWidth="1" max="7" min="7" style="4" width="18.875"/>
+    <col customWidth="1" max="2" min="2" style="3" width="29.875"/>
+    <col customWidth="1" max="3" min="3" style="3" width="31"/>
+    <col customWidth="1" max="4" min="4" style="3" width="59.5"/>
+    <col customWidth="1" max="6" min="6" style="3" width="33.75"/>
+    <col customWidth="1" max="7" min="7" style="3" width="18.875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="13" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="13" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="13" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="13" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="13" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="13" t="inlineStr">
         <is>
           <t>actual</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="13" t="inlineStr">
         <is>
           <t>result</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
+          <t>sql</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1511,12 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -1444,6 +1544,11 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>PASS</t>
+        </is>
+      </c>
+      <c r="I2" s="15" t="inlineStr">
+        <is>
+          <t>SELECT id FROM future.member where mobilephone = "#normal_user#" order by id desc limit 1</t>
         </is>
       </c>
     </row>
@@ -1451,12 +1556,12 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>正常充值</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -1471,7 +1576,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>充值成功</t>
         </is>
@@ -1484,6 +1589,11 @@
       <c r="H3" t="inlineStr">
         <is>
           <t>PASS</t>
+        </is>
+      </c>
+      <c r="I3" s="15" t="inlineStr">
+        <is>
+          <t>SELECT leaveamount FROM future.member where id = "#memer_id#"</t>
         </is>
       </c>
     </row>
@@ -1491,12 +1601,12 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>此手机号对应的会员不存在</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -1524,6 +1634,11 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>PASS</t>
+        </is>
+      </c>
+      <c r="I4" s="15" t="inlineStr">
+        <is>
+          <t>SELECT leaveamount FROM future.member where id = "#memer_id#"</t>
         </is>
       </c>
     </row>
@@ -1531,12 +1646,12 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>手机格式不正确</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
@@ -1566,32 +1681,37 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="I5" s="15" t="inlineStr">
+        <is>
+          <t>SELECT leaveamount FROM future.member where id = "#memer_id#"</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>输入金额的金额小数不能超过两位</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>{"mobilephone": "#normal_user#", "amount": "10.123"}</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>输入金额的金额小数不能超过两位</t>
         </is>
@@ -1606,32 +1726,37 @@
           <t>PASS</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="17.25" r="7" s="4">
-      <c r="A7" s="5" t="n">
+      <c r="I6" s="15" t="inlineStr">
+        <is>
+          <t>SELECT leaveamount FROM future.member where id = "#memer_id#"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.25" r="7" s="3">
+      <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>范围在0到50万之间的正数</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>{"mobilephone": "#normal_user#", "amount": "510000"}</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>请输入范围在0到50万之间的正数金额</t>
         </is>
@@ -1646,32 +1771,37 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="I7" s="15" t="inlineStr">
+        <is>
+          <t>SELECT leaveamount FROM future.member where id = "#memer_id#"</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>输入无效字符</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>{"mobilephone": "#normal_user#", "amount": "!@#$%^&amp;*"}</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>请输入数字</t>
         </is>
@@ -1686,32 +1816,37 @@
           <t>PASS</t>
         </is>
       </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>SELECT leaveamount FROM future.member where id = "#memer_id#"</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>请输入金额</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>{"mobilephone": "#normal_user#", "amount": ""}</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>请输入金额</t>
         </is>
@@ -1724,6 +1859,11 @@
       <c r="H9" t="inlineStr">
         <is>
           <t>PASS</t>
+        </is>
+      </c>
+      <c r="I9" s="15" t="inlineStr">
+        <is>
+          <t>SELECT leaveamount FROM future.member where id = "#memer_id#"</t>
         </is>
       </c>
     </row>
@@ -1745,60 +1885,67 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="4" width="31.75"/>
-    <col customWidth="1" max="3" min="3" style="4" width="23"/>
-    <col customWidth="1" max="4" min="4" style="4" width="85.75"/>
-    <col customWidth="1" max="6" min="6" style="4" width="39"/>
-    <col customWidth="1" max="7" min="7" style="4" width="33.25"/>
+    <col customWidth="1" max="2" min="2" style="3" width="31.75"/>
+    <col customWidth="1" max="3" min="3" style="3" width="23"/>
+    <col customWidth="1" max="4" min="4" style="3" width="85.75"/>
+    <col customWidth="1" max="6" min="6" style="3" width="39"/>
+    <col customWidth="1" max="7" min="7" style="3" width="21.375"/>
+    <col customWidth="1" max="8" min="8" style="3" width="5.375"/>
+    <col customWidth="1" max="9" min="9" style="3" width="92.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="13" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="13" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="13" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="13" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="13" t="inlineStr">
         <is>
           <t>actual</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="13" t="inlineStr">
         <is>
           <t>result</t>
+        </is>
+      </c>
+      <c r="I1" s="13" t="inlineStr">
+        <is>
+          <t>sql</t>
         </is>
       </c>
     </row>
@@ -1806,359 +1953,404 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="9" t="inlineStr">
         <is>
           <t>{"mobilephone": "#normal_user#", "pwd": "123456"}</t>
         </is>
       </c>
-      <c r="E2" s="10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F2" s="10" t="inlineStr">
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="G2" s="9" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
-      <c r="H2" s="10" t="inlineStr">
+      <c r="H2" s="9" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="3" s="4">
+      <c r="I2" s="15" t="inlineStr">
+        <is>
+          <t>SELECT id FROM future.member where mobilephone = "#normal_user#" order by id desc limit 1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="3" s="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>输入空值</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
+      <c r="C3" s="10" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="D3" s="10" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>{"memberId":"","password":"","loanId":"#loanID#","amount":""}</t>
         </is>
       </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F3" s="10" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>参数错误:所有参数都不能为空</t>
         </is>
       </c>
-      <c r="G3" s="10" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>参数错误:所有参数都不能为空</t>
         </is>
       </c>
-      <c r="H3" s="10" t="inlineStr">
+      <c r="H3" s="9" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="4" s="4">
+      <c r="I3" s="15" t="inlineStr">
+        <is>
+          <t>SELECT leaveamount FROM future.member where id = "#memer_id#"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="3">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>输入负数id</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="9" t="inlineStr">
         <is>
           <t>{"memberId":"-1","password":"123456","loanId":"#loanID#","amount":"100"}</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
         <is>
           <t>参数错误，memberId必须是大于0的正整数</t>
         </is>
       </c>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="G4" s="9" t="inlineStr">
         <is>
           <t>参数错误，memberId必须是大于0的正整数</t>
         </is>
       </c>
-      <c r="H4" s="10" t="inlineStr">
+      <c r="H4" s="9" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="5" s="4">
+      <c r="I4" s="15" t="inlineStr">
+        <is>
+          <t>SELECT leaveamount FROM future.member where id = "#memer_id#"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="3">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>输入错误标的</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="D5" s="9" t="inlineStr">
         <is>
           <t>{"memberId":"#memer_id#","password":"123456","loanId":"-!@#$%^&amp;","amount":"100"}</t>
         </is>
       </c>
-      <c r="E5" s="10" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
         <is>
           <t>不存在该标的</t>
         </is>
       </c>
-      <c r="G5" s="10" t="inlineStr">
+      <c r="G5" s="9" t="inlineStr">
         <is>
           <t>不存在该标的</t>
         </is>
       </c>
-      <c r="H5" s="10" t="inlineStr">
+      <c r="H5" s="9" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="6" s="4">
-      <c r="A6" s="5" t="n">
+      <c r="I5" s="15" t="inlineStr">
+        <is>
+          <t>SELECT leaveamount FROM future.member where id = "#memer_id#"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="3">
+      <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>输入错误的金额</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>{"memberId":"#memer_id#","password":"123456","loanId":"#loanID#","amount":"101.4"}</t>
         </is>
       </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>参数错误，投资金额必须是能被100整除的正整数</t>
         </is>
       </c>
-      <c r="G6" s="10" t="inlineStr">
+      <c r="G6" s="9" t="inlineStr">
         <is>
           <t>参数错误，投资金额必须是能被100整除的正整数</t>
         </is>
       </c>
-      <c r="H6" s="10" t="inlineStr">
+      <c r="H6" s="9" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="7" s="4">
-      <c r="A7" s="5" t="n">
+      <c r="I6" s="15" t="inlineStr">
+        <is>
+          <t>SELECT leaveamount FROM future.member where id = "#memer_id#"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="3">
+      <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>输入错误密码</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="10" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="D7" s="10" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
         <is>
           <t>{"memberId":"#memer_id#","password":"12345","loanId":"#loanID#","amount":"100"}</t>
         </is>
       </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F7" s="9" t="inlineStr">
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
         <is>
           <t>参数错误，password长度必须大于6位且小于18位</t>
         </is>
       </c>
-      <c r="G7" s="10" t="inlineStr">
+      <c r="G7" s="9" t="inlineStr">
         <is>
           <t>参数错误，password长度必须大于6位且小于18位</t>
         </is>
       </c>
-      <c r="H7" s="10" t="inlineStr">
+      <c r="H7" s="9" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="8" s="4">
-      <c r="A8" s="5" t="n">
+      <c r="I7" s="15" t="inlineStr">
+        <is>
+          <t>SELECT leaveamount FROM future.member where id = "#memer_id#"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="3">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>错误用户</t>
-        </is>
-      </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>竞标成功</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="D8" s="10" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>{"memberId":"#memer_id#","password":"123456","loanId":"#loanID#","amount":"100"}</t>
         </is>
       </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F8" s="10" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
         <is>
           <t>竞标成功</t>
         </is>
       </c>
-      <c r="G8" s="10" t="inlineStr">
+      <c r="G8" s="9" t="inlineStr">
         <is>
           <t>竞标成功</t>
         </is>
       </c>
-      <c r="H8" s="10" t="inlineStr">
+      <c r="H8" s="9" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="9" s="4">
-      <c r="A9" s="5" t="n">
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>SELECT leaveamount FROM future.member where id = "#memer_id#"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="3">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>投标金额不足</t>
         </is>
       </c>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="D9" s="10" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>{"memberId":"#memer_id#","password":"123456","loanId":"11112","amount":"1000"}</t>
         </is>
       </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>不存在该标的</t>
         </is>
       </c>
-      <c r="G9" s="10" t="inlineStr">
+      <c r="G9" s="9" t="inlineStr">
         <is>
           <t>不存在该标的</t>
         </is>
       </c>
-      <c r="H9" s="10" t="inlineStr">
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="10" s="4">
-      <c r="A10" s="5" t="n">
+      <c r="I9" s="15" t="inlineStr">
+        <is>
+          <t>SELECT leaveamount FROM future.member where id = "#memer_id#"</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="3">
+      <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t>特殊字符</t>
         </is>
       </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="D10" s="10" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>{"memberId":"@Qqe$%^","password":"@Qqe$%^","loanId":"@Qqe$%^","amount":"@Qqe$%^"}</t>
         </is>
       </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>请根据数值参数的类型对应输入合法的数字</t>
         </is>
       </c>
-      <c r="G10" s="10" t="inlineStr">
+      <c r="G10" s="9" t="inlineStr">
         <is>
           <t>请根据数值参数的类型对应输入合法的数字</t>
         </is>
       </c>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="H10" s="9" t="inlineStr">
         <is>
           <t>PASS</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>SELECT leaveamount FROM future.member where id = "#memer_id#"</t>
         </is>
       </c>
     </row>
@@ -2185,50 +2377,50 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="4" width="28.625"/>
-    <col customWidth="1" max="3" min="3" style="4" width="20.125"/>
-    <col customWidth="1" max="4" min="4" style="4" width="141.75"/>
-    <col customWidth="1" max="5" min="5" style="4" width="34.75"/>
-    <col customWidth="1" max="6" min="6" style="4" width="37"/>
+    <col customWidth="1" max="2" min="2" style="3" width="28.625"/>
+    <col customWidth="1" max="3" min="3" style="3" width="20.125"/>
+    <col customWidth="1" max="4" min="4" style="3" width="141.75"/>
+    <col customWidth="1" max="5" min="5" style="3" width="34.75"/>
+    <col customWidth="1" max="6" min="6" style="3" width="37"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="13" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="13" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="13" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="13" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="13" t="inlineStr">
         <is>
           <t>actual</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="13" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -2238,12 +2430,12 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -2264,21 +2456,21 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3" s="4">
+    <row customHeight="1" ht="15" r="3" s="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>正常加标</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="7" t="inlineStr">
         <is>
           <t>{"memberId":"324","title":"ced","amount":"100","loanRate":"3","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"1"}</t>
         </is>
@@ -2294,21 +2486,21 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="4" s="4">
+    <row customHeight="1" ht="15" r="4" s="3">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>memberId为空</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>{"memberId":"","title":"ced","amount":"100","loanRate":"3","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"2"}</t>
         </is>
@@ -2324,21 +2516,21 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="5" s="4">
+    <row customHeight="1" ht="15" r="5" s="3">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>title为空</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>{"memberId":"324","title":"","amount":"100","loanRate":"3","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"3"}</t>
         </is>
@@ -2354,26 +2546,26 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="6" s="4">
-      <c r="A6" s="5" t="n">
+    <row customHeight="1" ht="15" r="6" s="3">
+      <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>amount为空</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>{"memberId":"324","title":"ced","amount":"","loanRate":"3","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"4"}</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2384,26 +2576,26 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="7" s="4">
-      <c r="A7" s="5" t="n">
+    <row customHeight="1" ht="15" r="7" s="3">
+      <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>loanRate为空</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D7" s="7" t="inlineStr">
         <is>
           <t>{"memberId":"324","title":"ced","amount":"100","loanRate":"","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"5"}</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2414,26 +2606,26 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="8" s="4">
-      <c r="A8" s="5" t="n">
+    <row customHeight="1" ht="15" r="8" s="3">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>loanTerm为空</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="D8" s="7" t="inlineStr">
         <is>
           <t>{"memberId":"324","title":"ced","amount":"100","loanRate":"3","loanTerm":"","loanDateType":"0","repaymemtWay":"4","biddingDays":"6"}</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2444,26 +2636,26 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="9" s="4">
-      <c r="A9" s="5" t="n">
+    <row customHeight="1" ht="15" r="9" s="3">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>loanDateType为空</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr">
         <is>
           <t>{"memberId":"324","title":"ced","amount":"100","loanRate":"3","loanTerm":"6","loanDateType":"","repaymemtWay":"4","biddingDays":"7"}</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2474,26 +2666,26 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="10" s="4">
-      <c r="A10" s="5" t="n">
+    <row customHeight="1" ht="15" r="10" s="3">
+      <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>repaymemtWay为空</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="D10" s="7" t="inlineStr">
         <is>
           <t>{"memberId":"324","title":"ced","amount":"100","loanRate":"3","loanTerm":"6","loanDateType":"0","repaymemtWay":"","biddingDays":"8"}</t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2504,26 +2696,26 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="11" s="4">
-      <c r="A11" s="5" t="n">
+    <row customHeight="1" ht="15" r="11" s="3">
+      <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>biddingDays为空</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="7" t="inlineStr">
         <is>
           <t>{"memberId":"324","title":"ced","amount":"100","loanRate":"3","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":""}</t>
         </is>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2534,8 +2726,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="12" s="4">
-      <c r="A12" s="5" t="n">
+    <row customHeight="1" ht="15" r="12" s="3">
+      <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -2543,17 +2735,17 @@
           <t>错误会员id</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
+      <c r="D12" s="7" t="inlineStr">
         <is>
           <t>{"memberId":"10001","title":"ced","amount":"100","loanRate":"3","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
         </is>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2564,8 +2756,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="13" s="4">
-      <c r="A13" s="5" t="n">
+    <row customHeight="1" ht="15" r="13" s="3">
+      <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -2573,17 +2765,17 @@
           <t>错误金额</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="D13" s="7" t="inlineStr">
         <is>
           <t>{"memberId":"324","title":"ced","amount":"100.1","loanRate":"3","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
         </is>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2594,8 +2786,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="14" s="4">
-      <c r="A14" s="5" t="n">
+    <row customHeight="1" ht="15" r="14" s="3">
+      <c r="A14" s="4" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -2603,17 +2795,17 @@
           <t>错误利率</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="D14" s="7" t="inlineStr">
         <is>
           <t>{"memberId":"324","title":"ced","amount":"100","loanRate":"25","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
         </is>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2624,8 +2816,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="15" s="4">
-      <c r="A15" s="5" t="n">
+    <row customHeight="1" ht="15" r="15" s="3">
+      <c r="A15" s="4" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -2633,17 +2825,17 @@
           <t>错误的借款日期类型</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="D15" s="8" t="inlineStr">
+      <c r="D15" s="7" t="inlineStr">
         <is>
           <t>{"memberId":"324","title":"ced","amount":"100","loanRate":"3","loanTerm":"6","loanDateType":"1","repaymemtWay":"4","biddingDays":"10"}</t>
         </is>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2654,8 +2846,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="16" s="4">
-      <c r="A16" s="5" t="n">
+    <row customHeight="1" ht="15" r="16" s="3">
+      <c r="A16" s="4" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -2663,17 +2855,17 @@
           <t>错误的还款方式</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>/loan/add</t>
         </is>
       </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="D16" s="7" t="inlineStr">
         <is>
           <t>{"memberId":"324","title":"ced","amount":"100","loanRate":"3","loanTerm":"6","loanDateType":"0","repaymemtWay":"4.2","biddingDays":"10"}</t>
         </is>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -2707,501 +2899,501 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="8.25"/>
-    <col customWidth="1" max="2" min="2" style="4" width="25.375"/>
-    <col customWidth="1" max="3" min="3" style="4" width="22.875"/>
-    <col customWidth="1" max="4" min="4" style="4" width="33.75"/>
-    <col customWidth="1" max="5" min="5" style="4" width="14.75"/>
-    <col customWidth="1" max="6" min="6" style="4" width="53.75"/>
+    <col customWidth="1" max="1" min="1" style="3" width="8.25"/>
+    <col customWidth="1" max="2" min="2" style="3" width="25.375"/>
+    <col customWidth="1" max="3" min="3" style="3" width="22.875"/>
+    <col customWidth="1" max="4" min="4" style="3" width="33.75"/>
+    <col customWidth="1" max="5" min="5" style="3" width="14.75"/>
+    <col customWidth="1" max="6" min="6" style="3" width="53.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="13" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="13" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="13" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="13" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="13" t="inlineStr">
         <is>
           <t>actual</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="13" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>登录</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>{"mobilephone": "18668208114", "pwd": "123456"}</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>登录成功</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3" s="4">
-      <c r="A3" s="5" t="n">
+    <row customHeight="1" ht="15" r="3" s="3">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>审核中</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>{"id":"967","status":"1"}</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>修改失败，当前标已经是该状态</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="4" s="4">
-      <c r="A4" s="5" t="n">
+    <row customHeight="1" ht="15" r="4" s="3">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>二审</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>{"id":"967","status":"2"}</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>更新状态成功：审核通过，当前标为二审(初审中)状态</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="5" s="4">
-      <c r="A5" s="5" t="n">
+    <row customHeight="1" ht="15" r="5" s="3">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>三审</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>{"id":"967","status":"3"}</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>更新状态成功：审核通过，当前标为三审(复审中)状态</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="6" s="4">
-      <c r="A6" s="5" t="n">
+    <row customHeight="1" ht="15" r="6" s="3">
+      <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>四审</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>{"id":"967","status":"4"}</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>更新状态成功：竞标开始，当前标为竞标中状态</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="7" s="4">
-      <c r="A7" s="5" t="n">
+    <row customHeight="1" ht="15" r="7" s="3">
+      <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>五审</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>{"id":"967","status":"5"}</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>更新状态成功：当前标为核保审批状态</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="8" s="4">
-      <c r="A8" s="5" t="n">
+    <row customHeight="1" ht="15" r="8" s="3">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>平台终审</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>{"id":"967","status":"6"}</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>更新状态成功：当前标为平台终审状态</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>还款中</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>{"id":"967","status":"7"}</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>不允许直接更新项目到还款中状态，请执行生成回款计划</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>错误状态</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>{"id":"967","status":"123"}</t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>参数错误：非法status参数，状态值1-11</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>空id</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>{"id":"","status":"9"}</t>
         </is>
       </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>参数错误：所有参数不能为空</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>空状态</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>{"id":"967","status":""}</t>
         </is>
       </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>参数错误：所有参数不能为空</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>不存在的项目id</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="D13" s="5" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>{"id":"12345","status":"5"}</t>
         </is>
       </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>不存在该项目</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>未开放的状态接口</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="D14" s="5" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>{"id":"967","status":"9"}</t>
         </is>
       </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>当前接口暂未开放该状态值更新</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>id特殊字符</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="D15" s="5" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>{"id":"！@#￥%…","status":"5"}</t>
         </is>
       </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>请根据数值参数的类型对应输入合法的数字</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>status特殊字符</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>/loan/audit</t>
         </is>
       </c>
-      <c r="D16" s="5" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>{"id":"967","status":"！@#￥%…"}</t>
         </is>
       </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>请根据数值参数的类型对应输入合法的数字</t>
         </is>
